--- a/surface meteorological stations.xlsx
+++ b/surface meteorological stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\个人文件\论文撰写\基于XGboost的地面气象站PWV估计方法\论文撰写\投稿ASR\第一次意见\需要上传到的文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080CC4D3-C141-49FC-BB90-7DC7B7D4BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FE64BE-12EA-45D3-B0AA-EAD3B82915A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3890" yWindow="6110" windowWidth="28800" windowHeight="14770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>longitude</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,6 +41,10 @@
   <si>
     <t>station ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E2" sqref="E2:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -385,7 +389,7 @@
     <col min="1" max="4" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -398,8 +402,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>56497</v>
       </c>
@@ -412,8 +419,11 @@
       <c r="D2" s="1">
         <v>433.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>56483</v>
       </c>
@@ -426,8 +436,11 @@
       <c r="D3" s="1">
         <v>494.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>56969</v>
       </c>
@@ -440,8 +453,11 @@
       <c r="D4" s="1">
         <v>634.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>59205</v>
       </c>
@@ -454,8 +470,11 @@
       <c r="D5" s="1">
         <v>688.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>56836</v>
       </c>
@@ -468,8 +487,11 @@
       <c r="D6" s="1">
         <v>828.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>56489</v>
       </c>
@@ -482,8 +504,11 @@
       <c r="D7" s="1">
         <v>876.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>56594</v>
       </c>
@@ -496,8 +521,11 @@
       <c r="D8" s="1">
         <v>884</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>56673</v>
       </c>
@@ -510,8 +538,11 @@
       <c r="D9" s="1">
         <v>894.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>56952</v>
       </c>
@@ -524,8 +555,11 @@
       <c r="D10" s="1">
         <v>914</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>56844</v>
       </c>
@@ -538,8 +572,11 @@
       <c r="D11" s="1">
         <v>915</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>56949</v>
       </c>
@@ -552,8 +589,11 @@
       <c r="D12" s="1">
         <v>946.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>56643</v>
       </c>
@@ -566,8 +606,11 @@
       <c r="D13" s="1">
         <v>950.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>56835</v>
       </c>
@@ -580,8 +623,11 @@
       <c r="D14" s="1">
         <v>958.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56975</v>
       </c>
@@ -594,8 +640,11 @@
       <c r="D15" s="1">
         <v>975.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>56839</v>
       </c>
@@ -608,8 +657,11 @@
       <c r="D16" s="1">
         <v>994.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>56840</v>
       </c>
@@ -622,8 +674,11 @@
       <c r="D17" s="1">
         <v>1013.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>56950</v>
       </c>
@@ -636,8 +691,11 @@
       <c r="D18" s="1">
         <v>1044</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>56954</v>
       </c>
@@ -650,8 +708,11 @@
       <c r="D19" s="1">
         <v>1054.4000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>56946</v>
       </c>
@@ -664,8 +725,11 @@
       <c r="D20" s="1">
         <v>1104.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>56867</v>
       </c>
@@ -678,8 +742,11 @@
       <c r="D21" s="1">
         <v>1107.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>56854</v>
       </c>
@@ -692,8 +759,11 @@
       <c r="D22" s="1">
         <v>1108.0999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>56982</v>
       </c>
@@ -706,8 +776,11 @@
       <c r="D23" s="1">
         <v>1117.5999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>56977</v>
       </c>
@@ -720,8 +793,11 @@
       <c r="D24" s="1">
         <v>1121</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>56948</v>
       </c>
@@ -734,8 +810,11 @@
       <c r="D25" s="1">
         <v>1156.0999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>56856</v>
       </c>
@@ -748,8 +827,11 @@
       <c r="D26" s="1">
         <v>1163.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>56596</v>
       </c>
@@ -762,8 +844,11 @@
       <c r="D27" s="1">
         <v>1176.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>56582</v>
       </c>
@@ -776,8 +861,11 @@
       <c r="D28" s="1">
         <v>1177</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>56958</v>
       </c>
@@ -790,8 +878,11 @@
       <c r="D29" s="1">
         <v>1177.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>56641</v>
       </c>
@@ -804,8 +895,11 @@
       <c r="D30" s="1">
         <v>1191.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>56664</v>
       </c>
@@ -818,8 +912,11 @@
       <c r="D31" s="1">
         <v>1230.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>59007</v>
       </c>
@@ -832,8 +929,11 @@
       <c r="D32" s="1">
         <v>1251.4000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>56688</v>
       </c>
@@ -846,8 +946,11 @@
       <c r="D33" s="1">
         <v>1253.4000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>56987</v>
       </c>
@@ -860,8 +963,11 @@
       <c r="D34" s="1">
         <v>1261.0999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>56944</v>
       </c>
@@ -874,8 +980,11 @@
       <c r="D35" s="1">
         <v>1280.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>56994</v>
       </c>
@@ -888,8 +997,11 @@
       <c r="D36" s="1">
         <v>1292.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>56964</v>
       </c>
@@ -902,8 +1014,11 @@
       <c r="D37" s="1">
         <v>1302.9000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>56962</v>
       </c>
@@ -916,8 +1031,11 @@
       <c r="D38" s="1">
         <v>1315.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>56995</v>
       </c>
@@ -930,8 +1048,11 @@
       <c r="D39" s="1">
         <v>1335.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>56851</v>
       </c>
@@ -944,8 +1065,11 @@
       <c r="D40" s="1">
         <v>1378.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>56885</v>
       </c>
@@ -958,8 +1082,11 @@
       <c r="D41" s="1">
         <v>1416.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>56970</v>
       </c>
@@ -972,8 +1099,11 @@
       <c r="D42" s="1">
         <v>1419.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>56752</v>
       </c>
@@ -986,8 +1116,11 @@
       <c r="D43" s="1">
         <v>1440.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>56842</v>
       </c>
@@ -1000,8 +1133,11 @@
       <c r="D44" s="1">
         <v>1473.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>56891</v>
       </c>
@@ -1014,8 +1150,11 @@
       <c r="D45" s="1">
         <v>1482.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>56869</v>
       </c>
@@ -1028,8 +1167,11 @@
       <c r="D46" s="1">
         <v>1498.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>56951</v>
       </c>
@@ -1042,8 +1184,11 @@
       <c r="D47" s="1">
         <v>1502.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>56992</v>
       </c>
@@ -1056,8 +1201,11 @@
       <c r="D48" s="1">
         <v>1508.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>56889</v>
       </c>
@@ -1070,8 +1218,11 @@
       <c r="D49" s="1">
         <v>1518.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>56841</v>
       </c>
@@ -1084,8 +1235,11 @@
       <c r="D50" s="1">
         <v>1527.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>56880</v>
       </c>
@@ -1098,8 +1252,11 @@
       <c r="D51" s="1">
         <v>1532.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>56669</v>
       </c>
@@ -1112,8 +1269,11 @@
       <c r="D52" s="1">
         <v>1534.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>56991</v>
       </c>
@@ -1126,8 +1286,11 @@
       <c r="D53" s="1">
         <v>1561.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>56777</v>
       </c>
@@ -1140,8 +1303,11 @@
       <c r="D54" s="1">
         <v>1566.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56846</v>
       </c>
@@ -1154,8 +1320,11 @@
       <c r="D55" s="1">
         <v>1569.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56533</v>
       </c>
@@ -1168,8 +1337,11 @@
       <c r="D56" s="1">
         <v>1587.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56870</v>
       </c>
@@ -1182,8 +1354,11 @@
       <c r="D57" s="1">
         <v>1597.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56898</v>
       </c>
@@ -1196,8 +1371,11 @@
       <c r="D58" s="1">
         <v>1601.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56849</v>
       </c>
@@ -1210,8 +1388,11 @@
       <c r="D59" s="1">
         <v>1607.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>56746</v>
       </c>
@@ -1224,8 +1405,11 @@
       <c r="D60" s="1">
         <v>1618.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>56745</v>
       </c>
@@ -1238,8 +1422,11 @@
       <c r="D61" s="1">
         <v>1627.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>56978</v>
       </c>
@@ -1252,8 +1439,11 @@
       <c r="D62" s="1">
         <v>1640.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>56595</v>
       </c>
@@ -1266,8 +1456,11 @@
       <c r="D63" s="1">
         <v>1644.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>56843</v>
       </c>
@@ -1280,8 +1473,11 @@
       <c r="D64" s="1">
         <v>1650.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>56748</v>
       </c>
@@ -1294,8 +1490,11 @@
       <c r="D65" s="1">
         <v>1651.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>56742</v>
       </c>
@@ -1308,8 +1507,11 @@
       <c r="D66" s="1">
         <v>1663.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>56755</v>
       </c>
@@ -1322,8 +1524,11 @@
       <c r="D67" s="1">
         <v>1670</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>56772</v>
       </c>
@@ -1336,8 +1541,11 @@
       <c r="D68" s="1">
         <v>1694.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>56881</v>
       </c>
@@ -1350,8 +1558,11 @@
       <c r="D69" s="1">
         <v>1694.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>56739</v>
       </c>
@@ -1364,8 +1575,11 @@
       <c r="D70" s="1">
         <v>1696.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>56879</v>
       </c>
@@ -1378,8 +1592,11 @@
       <c r="D71" s="1">
         <v>1698.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>56886</v>
       </c>
@@ -1392,8 +1609,11 @@
       <c r="D72" s="1">
         <v>1705.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>56774</v>
       </c>
@@ -1406,8 +1626,11 @@
       <c r="D73" s="1">
         <v>1712</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>56875</v>
       </c>
@@ -1420,8 +1643,11 @@
       <c r="D74" s="1">
         <v>1717.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>56984</v>
       </c>
@@ -1434,8 +1660,11 @@
       <c r="D75" s="1">
         <v>1717.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>56876</v>
       </c>
@@ -1448,8 +1677,11 @@
       <c r="D76" s="1">
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>56757</v>
       </c>
@@ -1462,8 +1694,11 @@
       <c r="D77" s="1">
         <v>1744</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>56873</v>
       </c>
@@ -1476,8 +1711,11 @@
       <c r="D78" s="1">
         <v>1788.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>56878</v>
       </c>
@@ -1490,8 +1728,11 @@
       <c r="D79" s="1">
         <v>1802.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>56766</v>
       </c>
@@ -1504,8 +1745,11 @@
       <c r="D80" s="1">
         <v>1821.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>56863</v>
       </c>
@@ -1518,8 +1762,11 @@
       <c r="D81" s="1">
         <v>1850</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>56767</v>
       </c>
@@ -1532,8 +1779,11 @@
       <c r="D82" s="1">
         <v>1858.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>56761</v>
       </c>
@@ -1546,8 +1796,11 @@
       <c r="D83" s="1">
         <v>1873.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>56764</v>
       </c>
@@ -1560,8 +1813,11 @@
       <c r="D84" s="1">
         <v>1875.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>56778</v>
       </c>
@@ -1574,8 +1830,11 @@
       <c r="D85" s="1">
         <v>1889.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>56871</v>
       </c>
@@ -1588,8 +1847,11 @@
       <c r="D86" s="1">
         <v>1894.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>56883</v>
       </c>
@@ -1602,8 +1864,11 @@
       <c r="D87" s="1">
         <v>1901.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>56783</v>
       </c>
@@ -1616,8 +1881,11 @@
       <c r="D88" s="1">
         <v>1906.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>56882</v>
       </c>
@@ -1630,8 +1898,11 @@
       <c r="D89" s="1">
         <v>1909.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>56585</v>
       </c>
@@ -1644,8 +1915,11 @@
       <c r="D90" s="1">
         <v>1916</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>56785</v>
       </c>
@@ -1658,8 +1932,11 @@
       <c r="D91" s="1">
         <v>1916.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>56790</v>
       </c>
@@ -1672,8 +1949,11 @@
       <c r="D92" s="1">
         <v>1920.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>56586</v>
       </c>
@@ -1686,8 +1966,11 @@
       <c r="D93" s="1">
         <v>1950</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>56862</v>
       </c>
@@ -1700,8 +1983,11 @@
       <c r="D94" s="1">
         <v>1966</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>56697</v>
       </c>
@@ -1714,8 +2000,11 @@
       <c r="D95" s="1">
         <v>1987.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>56751</v>
       </c>
@@ -1728,8 +2017,11 @@
       <c r="D96" s="1">
         <v>1991.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>56649</v>
       </c>
@@ -1742,8 +2034,11 @@
       <c r="D97" s="1">
         <v>2059.9</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>56782</v>
       </c>
@@ -1756,8 +2051,11 @@
       <c r="D98" s="1">
         <v>2064.8000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>56652</v>
       </c>
@@ -1770,8 +2068,11 @@
       <c r="D99" s="1">
         <v>2131</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>56684</v>
       </c>
@@ -1784,8 +2085,11 @@
       <c r="D100" s="1">
         <v>2189.3000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>56646</v>
       </c>
@@ -1798,8 +2102,11 @@
       <c r="D101" s="1">
         <v>2193.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>56654</v>
       </c>
@@ -1812,8 +2119,11 @@
       <c r="D102" s="1">
         <v>2196.8000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>56567</v>
       </c>
@@ -1826,8 +2136,11 @@
       <c r="D103" s="1">
         <v>2242.3000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>56548</v>
       </c>
@@ -1840,8 +2153,11 @@
       <c r="D104" s="1">
         <v>2326</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>56645</v>
       </c>
@@ -1854,8 +2170,11 @@
       <c r="D105" s="1">
         <v>2345.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>56651</v>
       </c>
@@ -1868,8 +2187,11 @@
       <c r="D106" s="1">
         <v>2382.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>56543</v>
       </c>
@@ -1882,8 +2204,11 @@
       <c r="D107" s="1">
         <v>3277.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>56444</v>
       </c>
@@ -1895,6 +2220,9 @@
       </c>
       <c r="D108" s="1">
         <v>3320.8</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
